--- a/biology/Zoologie/Alice_the_Whaler/Alice_the_Whaler.xlsx
+++ b/biology/Zoologie/Alice_the_Whaler/Alice_the_Whaler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alice the Whaler est un court métrage d'animation américain muet de la série Alice Comedies sorti en 1927.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alice et Julius font partie de l'équipage d'un bateau de chasse à la baleine. Ils doivent non seulement lutter avec une baleine mais aussi avec un cuisinier au caractère difficile. 
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Alice the Whaler
 Série : Alice Comedies
@@ -558,8 +574,8 @@
 Format d'image : noir et blanc - 35 mm - 1,37:1 - muet
 Genre : animation et prises de vues réelles
 Durée : 6 min 06
-Dates de sortie : 25 juillet 1927[1]
-Source : Walt in Wonderland[2]</t>
+Dates de sortie : 25 juillet 1927
+Source : Walt in Wonderland</t>
         </is>
       </c>
     </row>
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lois Hardwick : Alice</t>
         </is>
@@ -617,9 +635,11 @@
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Produit le 26 mars 1927 (prise de vue réelle) et en mars 1927 (animation), le film a été livré le 30 avril 1927 et présenté en avant-première lr 18 avril 1927 au Paramount Theater de Los Angeles en première partie de Frères ennemis (Rolled Stockings)[2]. Le copyright a été déposé le 25 juillet 1927 par R-C Pictures Corp[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Produit le 26 mars 1927 (prise de vue réelle) et en mars 1927 (animation), le film a été livré le 30 avril 1927 et présenté en avant-première lr 18 avril 1927 au Paramount Theater de Los Angeles en première partie de Frères ennemis (Rolled Stockings). Le copyright a été déposé le 25 juillet 1927 par R-C Pictures Corp.
 </t>
         </is>
       </c>
